--- a/rd/trunk/Server/ServerCode/hawkjava/GameServer/xml/rewardGroup.xlsx
+++ b/rd/trunk/Server/ServerCode/hawkjava/GameServer/xml/rewardGroup.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="rewardGroup" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -392,7 +392,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/rd/trunk/Server/ServerCode/hawkjava/GameServer/xml/rewardGroup.xlsx
+++ b/rd/trunk/Server/ServerCode/hawkjava/GameServer/xml/rewardGroup.xlsx
@@ -39,7 +39,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3_20001_1_1000,4_70001_1_3_2_1000</t>
+    <t>3_20001_1_1000,4_70001_1_3_2_1000,1_1_88_10000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
